--- a/biology/Botanique/Gruau_(alimentation)/Gruau_(alimentation).xlsx
+++ b/biology/Botanique/Gruau_(alimentation)/Gruau_(alimentation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gruau (de francique *grût, « grain grossièrement moulu ») est une préparation de grains de céréales dégermés, tels que l'avoine à gruau, le blé ou l'orge perlé, de riz, dépouillés de leur enveloppe corticale par une mouture incomplète. Lorsque ce gruau est cuit, il se transforme en moût, la gélatinisation de l'amidon le rendant ouvert aux attaques des enzymes.
 Par extension, le terme désigne parfois une tisane ou une bouillie faite avec du gruau.
@@ -514,7 +526,9 @@
           <t>Farine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La farine de gruau tirée du blé, qui existe en types 45 et 55, est plus riche en gluten (13 % contre 10 %) et est  plus élastique que la farine ordinaire. On l'emploie par exemple pour la viennoiserie, la pâte à choux et la pâte à brioche.
 </t>
